--- a/data/combined data/combined data - 2 tables/orgtree.xlsx
+++ b/data/combined data/combined data - 2 tables/orgtree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 2 tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1948A679-2073-4B76-A9B4-681E9EBFF1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED14634-69E0-447E-9491-8E30B791D0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5183,6 +5183,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5530,15 +5531,15 @@
   <dimension ref="A1:I1743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C202" sqref="C202"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F445" sqref="F445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
     <col min="3" max="3" width="43.26953125" customWidth="1"/>
-    <col min="4" max="5" width="4.26953125" customWidth="1"/>
+    <col min="4" max="5" width="7.7265625" customWidth="1"/>
     <col min="6" max="6" width="14.6328125" customWidth="1"/>
     <col min="7" max="7" width="25.54296875" customWidth="1"/>
     <col min="8" max="9" width="14.6328125" customWidth="1"/>
